--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1624685.241313141</v>
+        <v>1622797.659796739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>585251.6960029593</v>
+        <v>305137.3290027129</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>248.9067665780138</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>99.34508049624269</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>75.20891053381787</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>62.51271672690379</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>46.48396162733312</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>22.98569063694827</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>35.18155893056274</v>
+        <v>135.6126687696266</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>69.5392462574389</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>59.7794577366498</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.82351342362338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.2787299119458</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>97.12772045570634</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>283.2741843940245</v>
+        <v>139.7568420184979</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>124.0740322943768</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>101.0041688483409</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.83311916721595</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>5.56262439642444</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533799</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>42.95895086650838</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965499</v>
+        <v>93.41221638965513</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180118</v>
+        <v>91.23070601801194</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437388</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348202</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897876</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571463</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523544</v>
+        <v>54.76109577523558</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8328922122509899</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952706</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080336</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235374</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789414</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463144</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415213</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.807289433107</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.807289433107</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>858.5415908263562</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>472.753338228112</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4416,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124028</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124028</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1280.556556803303</v>
+        <v>1238.153685885794</v>
       </c>
       <c r="C5" t="n">
-        <v>911.5940398628911</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="D5" t="n">
-        <v>911.5940398628911</v>
+        <v>869.1911689453821</v>
       </c>
       <c r="E5" t="n">
-        <v>525.8057872646468</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>518.8602865154434</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>100.8964784136302</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>100.8964784136302</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4601,16 +4601,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843236</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y5" t="n">
-        <v>1667.156396867425</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4656,13 +4656,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>111.0094142528941</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1626.94664591678</v>
+        <v>1955.440353470514</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.94664591678</v>
+        <v>1581.974595209434</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4966,43 +4966,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
@@ -5036,10 +5036,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514087</v>
@@ -5054,19 +5054,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>658.5774644300484</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="M12" t="n">
-        <v>1426.94561082251</v>
+        <v>1442.796708849623</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.466266460128</v>
+        <v>2247.208287113774</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2495.961701197736</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>467.99340221098</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.423997082767</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>870.4344461847498</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>649.6418670412197</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5264,64 +5264,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>648.0342195052081</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1261.931289262097</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>2030.299435654558</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N15" t="n">
-        <v>2374.820091292176</v>
+        <v>1926.416008325838</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W16" t="n">
-        <v>820.5263570570736</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X16" t="n">
-        <v>592.5368061590561</v>
+        <v>97.21709146028604</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527474</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>898.7925182488376</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>644.108030042951</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>545.9992215018335</v>
       </c>
       <c r="X19" t="n">
-        <v>465.7659634441654</v>
+        <v>318.0096706038162</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.9733843006351</v>
+        <v>97.21709146028593</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>2310.85019082976</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,25 +5932,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247851</v>
       </c>
       <c r="U22" t="n">
-        <v>789.0753054710162</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V22" t="n">
-        <v>789.0753054710162</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W22" t="n">
-        <v>499.6581354340557</v>
+        <v>278.8655562905257</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
         <v>278.8655562905255</v>
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>334.288126757867</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>372.9624052601981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>372.9624052601981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>372.9624052601981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>372.9624052601981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>372.9624052601981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,22 +6145,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119727</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119727</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119727</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333285</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V25" t="n">
-        <v>844.0280401273985</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W25" t="n">
-        <v>554.6108700904379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>554.6108700904379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>554.6108700904379</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,43 +6212,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765183</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706313</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706313</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>531.3977182706313</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>310.6051391271012</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578673</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215228</v>
+        <v>439.532429954221</v>
       </c>
       <c r="C31" t="n">
-        <v>637.699501774987</v>
+        <v>396.1395502910813</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440224</v>
+        <v>301.7837761601165</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430003</v>
+        <v>209.6315478590943</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264611</v>
+        <v>209.6315478590943</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864677</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933509</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667518</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962064</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286026</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.811824899273</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1879.970519634373</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1646.602746129302</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.679123204787</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.022818449197</v>
+        <v>902.6804289818955</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832551</v>
+        <v>730.4517433652491</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703914</v>
+        <v>565.4200295030897</v>
       </c>
     </row>
     <row r="32">
@@ -6680,43 +6680,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="N33" t="n">
-        <v>1288.32563221405</v>
+        <v>1926.416008325838</v>
       </c>
       <c r="O33" t="n">
-        <v>1957.789393516709</v>
+        <v>1926.416008325838</v>
       </c>
       <c r="P33" t="n">
-        <v>2478.090015252456</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103116</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,22 +6923,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>340.9799392532614</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>661.3152587829632</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083206</v>
@@ -7084,22 +7084,22 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,22 +7160,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>436.8967109626376</v>
+        <v>205.9281322449862</v>
       </c>
       <c r="L39" t="n">
-        <v>1050.793780719526</v>
+        <v>435.8912381133354</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,64 +7397,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M42" t="n">
-        <v>1288.32563221405</v>
+        <v>542.9099710478251</v>
       </c>
       <c r="N42" t="n">
-        <v>1288.32563221405</v>
+        <v>1347.321549311976</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7658,10 +7658,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7734,19 +7734,19 @@
         <v>711.1141612171746</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.482307609636</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.893885873787</v>
+        <v>1515.525739481325</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2184.989500783985</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>182.0423201090506</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7834460210478</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,7 +9492,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>193.1571195175737</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417972</v>
+        <v>225.219846491826</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>382.9598396167773</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10437,10 +10437,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>247.6505710801169</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>97.70757484118893</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.7611399284714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.55325026999154</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>189.3952778808847</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.963168004552835</v>
+        <v>146.4805103800795</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>42.41953616900084</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>185.2331835502366</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.9988610147214</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>69.08461360356222</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437402</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389789</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>165.5114122175809</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918918.2903836162</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918918.2903836161</v>
+        <v>918918.290383616</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918918.290383616</v>
+        <v>918918.2903836161</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956032.0227613854</v>
+        <v>956032.0227613852</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26320,40 +26320,40 @@
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="F2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="G2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.418698365</v>
       </c>
-      <c r="F2" t="n">
-        <v>449683.418698365</v>
-      </c>
-      <c r="G2" t="n">
-        <v>449683.4186983651</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="I2" t="n">
-        <v>449683.4186983651</v>
-      </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>467845.4579470611</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="M2" t="n">
         <v>472099.0176719627</v>
       </c>
       <c r="N2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719627</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284591</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086661</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284591</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758056</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758149</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758785</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758629</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758825</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758825</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758824</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477252</v>
+        <v>18952.41620477247</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
-      <c r="N4" t="n">
-        <v>23206.58093189637</v>
-      </c>
       <c r="O4" t="n">
+        <v>23206.58093189631</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,28 +26485,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339787.0787866099</v>
+        <v>-339787.07878661</v>
       </c>
       <c r="C6" t="n">
-        <v>250180.8004279344</v>
+        <v>250180.8004279345</v>
       </c>
       <c r="D6" t="n">
         <v>250180.8004279344</v>
       </c>
       <c r="E6" t="n">
-        <v>-168251.7374178237</v>
+        <v>-168349.1965437959</v>
       </c>
       <c r="F6" t="n">
-        <v>356908.2990590725</v>
+        <v>356810.8399331008</v>
       </c>
       <c r="G6" t="n">
-        <v>356908.2990590726</v>
+        <v>356810.8399331006</v>
       </c>
       <c r="H6" t="n">
-        <v>356908.2990590726</v>
+        <v>356810.8399331004</v>
       </c>
       <c r="I6" t="n">
-        <v>356908.2990590727</v>
+        <v>356810.8399331004</v>
       </c>
       <c r="J6" t="n">
-        <v>180485.0798664798</v>
+        <v>180387.6207405075</v>
       </c>
       <c r="K6" t="n">
-        <v>308102.2279092199</v>
+        <v>308083.7341712857</v>
       </c>
       <c r="L6" t="n">
         <v>340834.4241191743</v>
       </c>
       <c r="M6" t="n">
-        <v>216376.3156862037</v>
+        <v>216376.3156862038</v>
       </c>
       <c r="N6" t="n">
-        <v>351177.3309200409</v>
+        <v>351177.3309200411</v>
       </c>
       <c r="O6" t="n">
-        <v>351177.3309200409</v>
+        <v>351177.3309200412</v>
       </c>
       <c r="P6" t="n">
-        <v>307014.7256171949</v>
+        <v>307014.7256171952</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964062</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.02816179497476e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108326</v>
+        <v>12.92863350108346</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.02816179497476e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855739</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>157.9692791636976</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>56.82580834555246</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>211.3140878027731</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>319.417653345358</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>105.4473546175281</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>125.6297823812641</v>
+        <v>92.11970491000804</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>314.0594097868503</v>
+        <v>213.6282999477864</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.356592998855251e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,16 +28573,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28615,10 +28615,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,31 +31136,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31616,25 +31616,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392718</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>334.7447142438519</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31862,13 +31862,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>261.7559250855782</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>382.8379034878876</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32236,7 +32236,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041496</v>
       </c>
       <c r="L17" t="n">
         <v>526.796267130444</v>
@@ -32318,25 +32318,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>186.3865186257888</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32552,34 +32552,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>340.85460907735</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,19 +32789,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32810,13 +32810,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,7 +32944,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -33035,7 +33035,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>238.778605225566</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33044,10 +33044,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33263,28 +33263,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33509,16 +33509,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>210.8834242666016</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.85750667712375</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33679,7 +33679,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33737,25 +33737,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>13.93913325719836</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33904,7 +33904,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O38" t="n">
         <v>562.4526372540886</v>
@@ -33974,28 +33974,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>216.4869287318327</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
@@ -34144,7 +34144,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946992</v>
@@ -34208,22 +34208,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>273.8226464915811</v>
+        <v>203.4934250822616</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34232,7 +34232,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34378,13 +34378,13 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34454,22 +34454,22 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>177.6928852203772</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>567.0306797674369</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>48.06791269472038</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>388.3797231237978</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>634.1039783201727</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>284.4417339377145</v>
       </c>
       <c r="O18" t="n">
-        <v>437.6525934580739</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,10 +36054,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187476</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>592.1206839096351</v>
+        <v>50.56087507312927</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36288,16 +36288,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197789</v>
+        <v>83.08581256980774</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36458,7 +36458,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>586.7792674857862</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178376</v>
@@ -36692,10 +36692,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>251.618127533444</v>
       </c>
       <c r="O30" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412289</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075299</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043212</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,19 +37157,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>395.3717854922085</v>
       </c>
       <c r="Q33" t="n">
-        <v>146.9530203269513</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>246.2250987807834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>343.1107267700523</v>
+        <v>109.8091321057579</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>525.0887213238661</v>
+        <v>454.7594999145467</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38026,13 +38026,13 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38102,22 +38102,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>362.1812464459841</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
